--- a/CucumberBDDFrame/SampleData/ExcelTestData.xlsx
+++ b/CucumberBDDFrame/SampleData/ExcelTestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vedant.jagani/Documents/Automation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vedant.jagani/git/Salesforce/CucumberBDDFrame/SampleData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B47AFB-3585-F141-A0E0-A03729B73EB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954AED27-E0E0-3B42-BD68-F609B05E626D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5560" yWindow="3020" windowWidth="28040" windowHeight="7420" xr2:uid="{1BB7990F-EB9F-9642-BB13-7F4EC9CFB64B}"/>
   </bookViews>
@@ -71,9 +71,6 @@
     <t>QASBillingValidationTimestampfield</t>
   </si>
   <si>
-    <t>ACT01</t>
-  </si>
-  <si>
     <t>111 Billing St</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>QAS Billing validation Status field</t>
+  </si>
+  <si>
+    <t>ACT02</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -504,7 +504,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>1232341234</v>
@@ -513,16 +513,16 @@
         <v>101</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>60056</v>
@@ -531,10 +531,10 @@
         <v>60042</v>
       </c>
       <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
         <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/CucumberBDDFrame/SampleData/ExcelTestData.xlsx
+++ b/CucumberBDDFrame/SampleData/ExcelTestData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vedant.jagani/git/Salesforce/CucumberBDDFrame/SampleData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954AED27-E0E0-3B42-BD68-F609B05E626D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5ACD5CC-32E8-4249-99D6-ACAE39D12EF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="3020" windowWidth="28040" windowHeight="7420" xr2:uid="{1BB7990F-EB9F-9642-BB13-7F4EC9CFB64B}"/>
+    <workbookView xWindow="1160" yWindow="2040" windowWidth="30340" windowHeight="15680" activeTab="1" xr2:uid="{1BB7990F-EB9F-9642-BB13-7F4EC9CFB64B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2Opportunities" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="137">
   <si>
     <t>Chicago</t>
   </si>
@@ -87,13 +88,370 @@
   </si>
   <si>
     <t>ACT02</t>
+  </si>
+  <si>
+    <t>PromoMessage</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Nickname</t>
+  </si>
+  <si>
+    <t>OpportunitySellingOwnerName</t>
+  </si>
+  <si>
+    <t>OpportunitySellingOwnerNameField</t>
+  </si>
+  <si>
+    <t>DroppedDealership</t>
+  </si>
+  <si>
+    <t>DroppedDealershipField</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>GeniusNotes1</t>
+  </si>
+  <si>
+    <t>InteriorColor</t>
+  </si>
+  <si>
+    <t>IntrestedCategory</t>
+  </si>
+  <si>
+    <t>ExteriorColor</t>
+  </si>
+  <si>
+    <t>IntrestedYear</t>
+  </si>
+  <si>
+    <t>Mileage</t>
+  </si>
+  <si>
+    <t>IntrestedModel</t>
+  </si>
+  <si>
+    <t>VehicleOptions</t>
+  </si>
+  <si>
+    <t>IntrestedProduct</t>
+  </si>
+  <si>
+    <t>InterestedLevel</t>
+  </si>
+  <si>
+    <t>VehicleTrim</t>
+  </si>
+  <si>
+    <t>BuyingHorizon</t>
+  </si>
+  <si>
+    <t>VehicleEngine</t>
+  </si>
+  <si>
+    <t>PaymentDetails</t>
+  </si>
+  <si>
+    <t>Tramsmission</t>
+  </si>
+  <si>
+    <t>VehiclePricing</t>
+  </si>
+  <si>
+    <t>InterestedStock</t>
+  </si>
+  <si>
+    <t>VehicleComments</t>
+  </si>
+  <si>
+    <t>IntrestedID</t>
+  </si>
+  <si>
+    <t>webpage</t>
+  </si>
+  <si>
+    <t>TowVehicleYear</t>
+  </si>
+  <si>
+    <t>MaxTowingCapacity</t>
+  </si>
+  <si>
+    <t>TowVehicleMake</t>
+  </si>
+  <si>
+    <t>TowVehicleModel</t>
+  </si>
+  <si>
+    <t>TowVehicleVIN</t>
+  </si>
+  <si>
+    <t>TowVehicleTrim</t>
+  </si>
+  <si>
+    <t>TowVehicleStyle</t>
+  </si>
+  <si>
+    <t>CurrentOwnerCategory</t>
+  </si>
+  <si>
+    <t>CurrentOwnedMileage</t>
+  </si>
+  <si>
+    <t>CurrentOwnedYear</t>
+  </si>
+  <si>
+    <t>CurrentOwnedPayoff</t>
+  </si>
+  <si>
+    <t>CurrentOwnedMake</t>
+  </si>
+  <si>
+    <t>CurrentOwnedQuoteLow</t>
+  </si>
+  <si>
+    <t>CurrentOwnedProduct</t>
+  </si>
+  <si>
+    <t>CurrentOwnedQuoteHigh</t>
+  </si>
+  <si>
+    <t>CurrentOwnedModel</t>
+  </si>
+  <si>
+    <t>CurrentOwnedQuoteDetails</t>
+  </si>
+  <si>
+    <t>CurrentOwnedTrim</t>
+  </si>
+  <si>
+    <t>CurrentOwnedComments</t>
+  </si>
+  <si>
+    <t>CurrentOwnedLength</t>
+  </si>
+  <si>
+    <t>CurrentOwnedCondition</t>
+  </si>
+  <si>
+    <t>CurrentOwnedEngine</t>
+  </si>
+  <si>
+    <t>CurrentOwnedID</t>
+  </si>
+  <si>
+    <t>CurrentOwnedOptions</t>
+  </si>
+  <si>
+    <t>LeadPhone</t>
+  </si>
+  <si>
+    <t>LeadEmail</t>
+  </si>
+  <si>
+    <t>LeadMobilePhone</t>
+  </si>
+  <si>
+    <t>LeadScore</t>
+  </si>
+  <si>
+    <t>LeadOtherPhone</t>
+  </si>
+  <si>
+    <t>LeadWorkPhone</t>
+  </si>
+  <si>
+    <t>LeadMessage</t>
+  </si>
+  <si>
+    <t>EndViditNotes</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>FormName</t>
+  </si>
+  <si>
+    <t>TrackingMedium</t>
+  </si>
+  <si>
+    <t>TrackingSCPC</t>
+  </si>
+  <si>
+    <t>WebLeadSourceName</t>
+  </si>
+  <si>
+    <t>Discription</t>
+  </si>
+  <si>
+    <t>PrimaryEmail</t>
+  </si>
+  <si>
+    <t>PrimaryPhone</t>
+  </si>
+  <si>
+    <t>LeadIPAddress</t>
+  </si>
+  <si>
+    <t>LeadSystemData</t>
+  </si>
+  <si>
+    <t>TrackingID</t>
+  </si>
+  <si>
+    <t>TrackingLandingPageURL</t>
+  </si>
+  <si>
+    <t>TrackingPromoCode</t>
+  </si>
+  <si>
+    <t>NextStep</t>
+  </si>
+  <si>
+    <t>TrackingCampaign</t>
+  </si>
+  <si>
+    <t>TrackingSource</t>
+  </si>
+  <si>
+    <t>TrackingContent</t>
+  </si>
+  <si>
+    <t>TrackingKeywords</t>
+  </si>
+  <si>
+    <t>ADCampaign</t>
+  </si>
+  <si>
+    <t>ADGroup</t>
+  </si>
+  <si>
+    <t>ADKeyword</t>
+  </si>
+  <si>
+    <t>ADSlot</t>
+  </si>
+  <si>
+    <t>ADSlotPosition</t>
+  </si>
+  <si>
+    <t>ADContent</t>
+  </si>
+  <si>
+    <t>OpportunityNameField</t>
+  </si>
+  <si>
+    <t>IDSCustomer#Field</t>
+  </si>
+  <si>
+    <t>IDSFIQuote#Field</t>
+  </si>
+  <si>
+    <t>GeniusNotes2Field</t>
+  </si>
+  <si>
+    <t>Notes2(Meet &amp; Greet)Field</t>
+  </si>
+  <si>
+    <t>GeniusNotes3(Trade Notes)Field</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>WorksheetIDFieldDataFromExcelSheet</t>
+  </si>
+  <si>
+    <t>PromoMessageExcel</t>
+  </si>
+  <si>
+    <t>IDSFIQuoteNum</t>
+  </si>
+  <si>
+    <t>IDSCustomerNum</t>
+  </si>
+  <si>
+    <t>Notes2MeetAndGreet</t>
+  </si>
+  <si>
+    <t>GeniusNotes3TradeNotes</t>
+  </si>
+  <si>
+    <t>NumSleeps</t>
+  </si>
+  <si>
+    <t>test@gmail.com.test</t>
+  </si>
+  <si>
+    <t>InterestedYear</t>
+  </si>
+  <si>
+    <t>InterestedType</t>
+  </si>
+  <si>
+    <t>Transmission</t>
+  </si>
+  <si>
+    <t>Doors</t>
+  </si>
+  <si>
+    <t>WriteUpAmount</t>
+  </si>
+  <si>
+    <t>SlideOuts</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>InterestedMake</t>
+  </si>
+  <si>
+    <t>Interested make field</t>
+  </si>
+  <si>
+    <t>TrackingReferralURL</t>
+  </si>
+  <si>
+    <t>BackendGP</t>
+  </si>
+  <si>
+    <t>OpportunityName</t>
+  </si>
+  <si>
+    <t>WorksheetID</t>
+  </si>
+  <si>
+    <t>INTERESTED FIELD</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>1231231234</t>
+  </si>
+  <si>
+    <t>2342343434</t>
+  </si>
+  <si>
+    <t>3456789900</t>
+  </si>
+  <si>
+    <t>1234567788</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -108,6 +466,38 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF3E3E3C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF40FF"/>
+      <name val="Menlo Regular"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,18 +517,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF40FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -449,11 +867,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A30498-6463-A748-A58F-BD124DAC4538}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
@@ -467,7 +883,7 @@
     <col min="11" max="11" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="19">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -502,7 +918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -540,4 +956,700 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93B6A42-D4F4-3F45-893A-619B43200CA0}">
+  <dimension ref="A1:CS2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="38.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="32" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22" style="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="22" style="7" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="24.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22" style="7" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="22" style="7" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="29.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="23.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="26.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="29.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="30.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="24.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="34.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="23.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="29.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="26.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="30.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="26.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="14.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="22" style="7" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="13.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="17.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="25.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="18.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="17.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="15" style="7" bestFit="1" customWidth="1"/>
+    <col min="83" max="84" width="31.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="24.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="23.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="22" style="7" bestFit="1" customWidth="1"/>
+    <col min="90" max="91" width="23.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="15.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="98" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:97" s="2" customFormat="1" ht="18">
+      <c r="A1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BV1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BY1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BZ1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="CB1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="CC1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="CD1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="CE1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CF1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="CG1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CI1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="CK1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CL1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CM1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="CN1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="CO1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CP1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CQ1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="CR1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="CS1" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:97" s="3" customFormat="1" ht="19">
+      <c r="A2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="3">
+        <v>50</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" s="3">
+        <v>125</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" s="3">
+        <v>50</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="3">
+        <v>12323</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO2" s="3">
+        <v>200</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV2" s="3">
+        <v>450</v>
+      </c>
+      <c r="AW2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX2" s="3">
+        <v>500</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ2" s="5">
+        <v>10</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB2" s="3">
+        <v>50</v>
+      </c>
+      <c r="BC2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="BE2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="BF2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="BG2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="BH2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="BJ2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BK2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL2" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="BM2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ2" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="BR2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT2" s="5">
+        <v>10</v>
+      </c>
+      <c r="BU2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BV2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="BX2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="BY2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BZ2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="CA2" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="CB2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="CC2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="CD2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="CE2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="CF2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="CG2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="CI2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="CJ2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="CK2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="CL2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="CM2" s="5">
+        <v>12</v>
+      </c>
+      <c r="CN2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="CO2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="CP2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="CQ2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="CR2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="CS2" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="BZ2" r:id="rId1" xr:uid="{F07FB793-E2A7-3248-8C15-040F696DE390}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CucumberBDDFrame/SampleData/ExcelTestData.xlsx
+++ b/CucumberBDDFrame/SampleData/ExcelTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vedant.jagani/git/Salesforce/CucumberBDDFrame/SampleData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5ACD5CC-32E8-4249-99D6-ACAE39D12EF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13416D9F-9767-1442-8978-9B63CBCF4BF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="2040" windowWidth="30340" windowHeight="15680" activeTab="1" xr2:uid="{1BB7990F-EB9F-9642-BB13-7F4EC9CFB64B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="138">
   <si>
     <t>Chicago</t>
   </si>
@@ -270,9 +270,6 @@
     <t>LeadMessage</t>
   </si>
   <si>
-    <t>EndViditNotes</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -445,6 +442,12 @@
   </si>
   <si>
     <t>1234567788</t>
+  </si>
+  <si>
+    <t>EndVisitNotes</t>
+  </si>
+  <si>
+    <t>End Visit notes field</t>
   </si>
 </sst>
 </file>
@@ -962,7 +965,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93B6A42-D4F4-3F45-893A-619B43200CA0}">
   <dimension ref="A1:CS2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="BM1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="BS3" sqref="BS3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -1061,13 +1066,13 @@
   <sheetData>
     <row r="1" spans="1:97" s="2" customFormat="1" ht="18">
       <c r="A1" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>19</v>
@@ -1076,7 +1081,7 @@
         <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>21</v>
@@ -1085,13 +1090,13 @@
         <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>25</v>
@@ -1100,19 +1105,19 @@
         <v>27</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="R1" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>28</v>
@@ -1124,16 +1129,16 @@
         <v>30</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>33</v>
@@ -1160,7 +1165,7 @@
         <v>40</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AI1" s="2" t="s">
         <v>42</v>
@@ -1271,96 +1276,96 @@
         <v>77</v>
       </c>
       <c r="BS1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="BT1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CG1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="CK1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="CL1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CM1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CG1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="CH1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CI1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="CJ1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="CK1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="CM1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CO1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CP1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CP1" s="2" t="s">
+      <c r="CQ1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="CQ1" s="2" t="s">
+      <c r="CR1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="CR1" s="2" t="s">
+      <c r="CS1" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="CS1" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:97" s="3" customFormat="1" ht="19">
       <c r="A2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="3">
         <v>50</v>
@@ -1378,10 +1383,10 @@
         <v>24</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="K2" s="3">
         <v>125</v>
@@ -1390,22 +1395,22 @@
         <v>26</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="O2" s="3">
         <v>50</v>
       </c>
       <c r="P2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="R2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>28</v>
@@ -1423,7 +1428,7 @@
         <v>12323</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Y2" s="3">
         <v>4</v>
@@ -1471,7 +1476,7 @@
         <v>46</v>
       </c>
       <c r="AN2" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AO2" s="3">
         <v>200</v>
@@ -1543,7 +1548,7 @@
         <v>70</v>
       </c>
       <c r="BL2" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BM2" s="5" t="s">
         <v>72</v>
@@ -1555,94 +1560,94 @@
         <v>74</v>
       </c>
       <c r="BP2" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BQ2" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="BR2" s="5" t="s">
         <v>77</v>
       </c>
       <c r="BS2" s="5" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="BT2" s="5">
         <v>10</v>
       </c>
       <c r="BU2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="BV2" s="5" t="s">
+      <c r="BW2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="BW2" s="5" t="s">
+      <c r="BX2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="BX2" s="5" t="s">
+      <c r="BY2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="BY2" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="BZ2" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CA2" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="CB2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="CC2" s="5" t="s">
+      <c r="CD2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="CD2" s="5" t="s">
+      <c r="CE2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="CE2" s="5" t="s">
+      <c r="CF2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="CG2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="CF2" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="CG2" s="5" t="s">
+      <c r="CH2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="CH2" s="5" t="s">
+      <c r="CI2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="CI2" s="5" t="s">
+      <c r="CJ2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="CJ2" s="5" t="s">
+      <c r="CK2" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="CK2" s="5" t="s">
+      <c r="CL2" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="CL2" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="CM2" s="5">
         <v>12</v>
       </c>
       <c r="CN2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="CO2" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="CO2" s="5" t="s">
+      <c r="CP2" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="CP2" s="5" t="s">
+      <c r="CQ2" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="CQ2" s="5" t="s">
+      <c r="CR2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="CR2" s="5" t="s">
+      <c r="CS2" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="CS2" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/CucumberBDDFrame/SampleData/ExcelTestData.xlsx
+++ b/CucumberBDDFrame/SampleData/ExcelTestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vedant.jagani/git/Salesforce/CucumberBDDFrame/SampleData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13416D9F-9767-1442-8978-9B63CBCF4BF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB34948-F64D-3F4B-9137-CB477531B96B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="2040" windowWidth="30340" windowHeight="15680" activeTab="1" xr2:uid="{1BB7990F-EB9F-9642-BB13-7F4EC9CFB64B}"/>
+    <workbookView xWindow="1160" yWindow="2040" windowWidth="30340" windowHeight="15680" activeTab="2" xr2:uid="{1BB7990F-EB9F-9642-BB13-7F4EC9CFB64B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2Opportunities" sheetId="2" r:id="rId2"/>
+    <sheet name="Leads" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="138">
   <si>
     <t>Chicago</t>
   </si>
@@ -965,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93B6A42-D4F4-3F45-893A-619B43200CA0}">
   <dimension ref="A1:CS2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BM1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="BS3" sqref="BS3"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1657,4 +1658,32 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C666EB-B96D-E540-B5D8-174DCE2B8F37}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18">
+      <c r="A1" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="19">
+      <c r="A2" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CucumberBDDFrame/SampleData/ExcelTestData.xlsx
+++ b/CucumberBDDFrame/SampleData/ExcelTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vedant.jagani/git/Salesforce/CucumberBDDFrame/SampleData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB34948-F64D-3F4B-9137-CB477531B96B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464A567E-BA92-4049-BFE5-61BEFF0350CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="2040" windowWidth="30340" windowHeight="15680" activeTab="2" xr2:uid="{1BB7990F-EB9F-9642-BB13-7F4EC9CFB64B}"/>
+    <workbookView xWindow="1740" yWindow="1420" windowWidth="30340" windowHeight="9600" activeTab="1" xr2:uid="{1BB7990F-EB9F-9642-BB13-7F4EC9CFB64B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="143">
   <si>
     <t>Chicago</t>
   </si>
@@ -449,13 +449,28 @@
   </si>
   <si>
     <t>End Visit notes field</t>
+  </si>
+  <si>
+    <t>LeadEmail@gmail.com</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>CustomerNumber</t>
+  </si>
+  <si>
+    <t>QuoteNumber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -503,6 +518,12 @@
       <color rgb="FFFF40FF"/>
       <name val="Menlo Regular"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF17C6A3"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -525,7 +546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -549,6 +570,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -964,108 +986,112 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93B6A42-D4F4-3F45-893A-619B43200CA0}">
-  <dimension ref="A1:CS2"/>
+  <dimension ref="A1:CU2"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="38.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="32" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22" style="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22" style="7" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="22" style="7" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="24.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="22" style="7" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11" style="7" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="22" style="7" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="22" style="7" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="29.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="23.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="26.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="24.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="22" style="7" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="22" style="7" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="29.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="23.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="29.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="30.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="24.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="34.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="23.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="29.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="26.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="30.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="26.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="23.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="29.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="30.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="24.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="34.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="23.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="29.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="26.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="14.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="22" style="7" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="30.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="26.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="14.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="20.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22" style="7" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="13.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="17.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="25.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="18.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="17.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="83" max="84" width="31.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="24.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="23.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="22" style="7" bestFit="1" customWidth="1"/>
-    <col min="90" max="91" width="23.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="15.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="98" max="16384" width="10.83203125" style="7"/>
+    <col min="72" max="72" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="22.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="13.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="17.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="25.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="18.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="17.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="15" style="7" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="31.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="27.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="24.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="23.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="22" style="7" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="23.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="15.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="100" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:97" s="2" customFormat="1" ht="18">
+    <row r="1" spans="1:99" s="2" customFormat="1" ht="18">
       <c r="A1" s="2" t="s">
         <v>129</v>
       </c>
@@ -1073,588 +1099,601 @@
         <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CI1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CO1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CP1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CQ1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="CP1" s="2" t="s">
+      <c r="CR1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CQ1" s="2" t="s">
+      <c r="CS1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="CR1" s="2" t="s">
+      <c r="CT1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="CS1" s="2" t="s">
+      <c r="CU1" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:97" s="3" customFormat="1" ht="19">
+    <row r="2" spans="1:99" s="3" customFormat="1" ht="19">
       <c r="A2" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="3">
+        <v>202</v>
+      </c>
+      <c r="D2" s="3">
+        <v>302</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="3">
+      <c r="F2" s="3">
         <v>50</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3">
+      <c r="H2" s="3">
         <v>0.2</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="3">
+      <c r="M2" s="3">
         <v>125</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="O2" s="3">
+      <c r="Q2" s="3">
         <v>50</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="3">
-        <v>12323</v>
-      </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z2" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="AA2" s="3">
         <v>4</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AP2" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AO2" s="3">
+      <c r="AQ2" s="3">
         <v>200</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AS2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AT2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AU2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AV2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AU2" s="3" t="s">
+      <c r="AW2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AV2" s="3">
+      <c r="AX2" s="3">
         <v>450</v>
       </c>
-      <c r="AW2" s="5" t="s">
+      <c r="AY2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AX2" s="3">
+      <c r="AZ2" s="3">
         <v>500</v>
       </c>
-      <c r="AY2" s="3" t="s">
+      <c r="BA2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AZ2" s="5">
+      <c r="BB2" s="5">
         <v>10</v>
       </c>
-      <c r="BA2" s="3" t="s">
+      <c r="BC2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BB2" s="3">
+      <c r="BD2" s="3">
         <v>50</v>
       </c>
-      <c r="BC2" s="5" t="s">
+      <c r="BE2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="BD2" s="5" t="s">
+      <c r="BF2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="BE2" s="5" t="s">
+      <c r="BG2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="BF2" s="5" t="s">
+      <c r="BH2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="BG2" s="5" t="s">
+      <c r="BI2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="BH2" s="5" t="s">
+      <c r="BJ2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="BI2" s="5" t="s">
+      <c r="BK2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="BJ2" s="5" t="s">
+      <c r="BL2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="BK2" s="5" t="s">
+      <c r="BM2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="BL2" s="8" t="s">
+      <c r="BN2" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="BM2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="BN2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="BO2" s="5" t="s">
-        <v>74</v>
+      <c r="BO2" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="BP2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="BQ2" s="5">
+        <v>12</v>
+      </c>
+      <c r="BR2" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="BQ2" s="8" t="s">
+      <c r="BS2" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="BR2" s="5" t="s">
+      <c r="BT2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="BS2" s="5" t="s">
+      <c r="BU2" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="BT2" s="5">
+      <c r="BV2" s="5">
         <v>10</v>
       </c>
-      <c r="BU2" s="5" t="s">
+      <c r="BW2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="BV2" s="5" t="s">
+      <c r="BX2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="BW2" s="5" t="s">
+      <c r="BY2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="BX2" s="5" t="s">
+      <c r="BZ2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="BY2" s="5" t="s">
+      <c r="CA2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="BZ2" s="6" t="s">
+      <c r="CB2" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="CA2" s="8" t="s">
+      <c r="CC2" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="CB2" s="5" t="s">
+      <c r="CD2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="CC2" s="5" t="s">
+      <c r="CE2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="CD2" s="5" t="s">
+      <c r="CF2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="CE2" s="5" t="s">
+      <c r="CG2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="CF2" s="5" t="s">
+      <c r="CH2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="CG2" s="5" t="s">
+      <c r="CI2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="CH2" s="5" t="s">
+      <c r="CJ2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="CI2" s="5" t="s">
+      <c r="CK2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="CJ2" s="5" t="s">
+      <c r="CL2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="CK2" s="5" t="s">
+      <c r="CM2" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="CL2" s="5" t="s">
+      <c r="CN2" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="CM2" s="5">
+      <c r="CO2" s="5">
         <v>12</v>
       </c>
-      <c r="CN2" s="5" t="s">
+      <c r="CP2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="CO2" s="5" t="s">
+      <c r="CQ2" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="CP2" s="5" t="s">
+      <c r="CR2" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="CQ2" s="5" t="s">
+      <c r="CS2" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="CR2" s="5" t="s">
+      <c r="CT2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="CS2" s="5" t="s">
+      <c r="CU2" s="5" t="s">
         <v>101</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="BZ2" r:id="rId1" xr:uid="{F07FB793-E2A7-3248-8C15-040F696DE390}"/>
+    <hyperlink ref="CB2" r:id="rId1" xr:uid="{F07FB793-E2A7-3248-8C15-040F696DE390}"/>
+    <hyperlink ref="BO2" r:id="rId2" xr:uid="{3D8C91B9-EAC7-B242-A655-AAB369434E4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1664,7 +1703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C666EB-B96D-E540-B5D8-174DCE2B8F37}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
